--- a/案/仕様書/ゲーム全体.xlsx
+++ b/案/仕様書/ゲーム全体.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Elina_Lead\案\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E7FE01-7C2D-4CC8-A5F4-4D29C8217F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA72CB7B-081D-4304-ADDA-166D8CC8777B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体の見た目" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>見た目リスト</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポストエフェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,25 +348,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
